--- a/小组.xlsx
+++ b/小组.xlsx
@@ -43,7 +43,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
     <font>
       <name val="宋体"/>
       <sz val="11"/>
@@ -95,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,6 +708,524 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:ofPieChart>
+        <c:ofPieType val="bar"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>美术小组</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音乐小组</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>体育小组</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>科学小组</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:secondPieSize val="75"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+      </c:ofPieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>美术小组</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>音乐小组</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>体育小组</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>科学小组</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -784,6 +1306,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -880,7 +1482,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -1383,7 +1985,7 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
@@ -1771,6 +2373,1051 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1808,15 +3455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>525891</xdr:colOff>
+      <xdr:colOff>525855</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>166092</xdr:rowOff>
+      <xdr:rowOff>164752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>781918</xdr:colOff>
+      <xdr:colOff>697729</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>102468</xdr:rowOff>
+      <xdr:rowOff>101128</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1838,15 +3485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>535886</xdr:colOff>
+      <xdr:colOff>535403</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>136624</xdr:rowOff>
+      <xdr:rowOff>126578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4613</xdr:colOff>
+      <xdr:colOff>4092</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>136624</xdr:rowOff>
+      <xdr:rowOff>126578</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1860,6 +3507,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438553</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90029</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>166092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="图表 3" id="4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302145</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111844</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="图表 4" id="5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2160,9 +3867,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +3917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +3931,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/小组.xlsx
+++ b/小组.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\julia\juliademolmr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D64CEC7-F1DC-4AED-B470-A5FA38F90B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>小组</t>
   </si>
@@ -35,25 +41,91 @@
   <si>
     <t>科学小组</t>
   </si>
+  <si>
+    <t>三班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,27 +173,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -148,13 +243,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>柱状图</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -231,20 +325,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20A9-43A7-885A-F57C115AB715}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -266,6 +365,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -411,7 +511,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -444,13 +544,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>折线图</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -528,21 +627,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9129-40C6-B40D-F5A69295569E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -552,7 +656,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="372162332"/>
         <c:axId val="577621992"/>
@@ -564,6 +667,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -709,7 +813,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -723,7 +827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -776,6 +879,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3857-4D1D-A417-AEA6CA3BC436}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -791,6 +899,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3857-4D1D-A417-AEA6CA3BC436}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -806,6 +919,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3857-4D1D-A417-AEA6CA3BC436}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -821,6 +939,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3857-4D1D-A417-AEA6CA3BC436}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -836,6 +959,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3857-4D1D-A417-AEA6CA3BC436}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -864,20 +992,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3857-4D1D-A417-AEA6CA3BC436}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -915,7 +1048,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -983,7 +1115,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -997,7 +1129,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>饼图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1006,26 +1163,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1049,6 +1186,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-175C-4269-9AE6-718252A4F500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1064,6 +1206,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-175C-4269-9AE6-718252A4F500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1079,6 +1226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-175C-4269-9AE6-718252A4F500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1094,6 +1246,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-175C-4269-9AE6-718252A4F500}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1122,20 +1279,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-175C-4269-9AE6-718252A4F500}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1159,7 +1321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1306,86 +1467,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2373,1051 +2454,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1440" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3467,7 +2503,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="图表 1" id="2"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3497,7 +2539,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="图表 2" id="3"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3527,7 +2575,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="图表 3" id="4"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3545,19 +2599,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>302145</xdr:colOff>
+      <xdr:colOff>116541</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111844</xdr:rowOff>
+      <xdr:rowOff>165634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>651351</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111844</xdr:rowOff>
+      <xdr:colOff>493056</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="图表 4" id="5"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3862,20 +2922,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="8:8" ht="43.05" customHeight="1">
+    <row r="1" spans="1:16" ht="43.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3891,54 +2956,209 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="8:8" ht="36.9" customHeight="1">
+    <row r="2" spans="1:16" ht="36.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>24.0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
+    <row r="3" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4">
+        <v>92</v>
+      </c>
+      <c r="P3" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4">
+        <v>88</v>
+      </c>
+      <c r="P4" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4">
+        <v>88</v>
+      </c>
+      <c r="P5" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="4">
+        <v>64</v>
+      </c>
+      <c r="P6" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4">
+        <v>98</v>
+      </c>
+      <c r="P7" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="4">
+        <v>99</v>
+      </c>
+      <c r="P8" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4">
+        <v>89</v>
+      </c>
+      <c r="P9" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="4">
+        <v>78</v>
+      </c>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="4">
+        <v>87</v>
+      </c>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM(O3:O11)</f>
+        <v>783</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM(P3:P9)</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4">
+        <f>AVERAGE(O3:O11)</f>
+        <v>87</v>
+      </c>
+      <c r="P14" s="4">
+        <f>AVERAGE(P3:P9)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>